--- a/jpcore-r4/feature/swg3-encouter/ValueSet-jp-condition-severity-vs.xlsx
+++ b/jpcore-r4/feature/swg3-encouter/ValueSet-jp-condition-severity-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T13:31:26+00:00</t>
+    <t>2022-09-15T00:22:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
